--- a/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Антон Ионов.xlsx
+++ b/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Антон Ионов.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Сотрудник: Антон Ионов</x:t>
+    <x:t>Сотрудник Антон Ионов: 0,0 руб.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Сер.№</x:t>

--- a/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Антон Ионов.xlsx
+++ b/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Антон Ионов.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Сотрудник Антон Ионов. Расчитанная сумма с 5 июня 2025 г. по 6 июня 2025 г. составила: 0,0 руб.</x:t>
+    <x:t>Сотрудник Антон Ионов. Расчитанная сумма с 5 мая 2024 г. по 6 июня 2024 г. составила: 0,0 руб.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Сер.№</x:t>

--- a/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Антон Ионов.xlsx
+++ b/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Антон Ионов.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Сотрудник Антон Ионов. Расчитанная сумма с 5 мая 2024 г. по 6 июня 2024 г. составила: 0,0 руб.</x:t>
+    <x:t>Сотрудник Антон Ионов. Расчитанная сумма с 5 июня 2025 г. по 6 июня 2025 г. составила: 0,0 руб.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Сер.№</x:t>

--- a/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Антон Ионов.xlsx
+++ b/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Антон Ионов.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Сотрудник Антон Ионов. Расчитанная сумма с 5 июня 2025 г. по 6 июня 2025 г. составила: 0,0 руб.</x:t>
+    <x:t>Сотрудник Антон Ионов. Расчитанная сумма с 5 июня 2025 г. по 9 июня 2025 г. составила: 0,0 руб.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Сер.№</x:t>

--- a/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Антон Ионов.xlsx
+++ b/IonosLedWebMvc.Ver2/wwwroot/ExcelFilesDir/Details_For_Антон Ионов.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>Сотрудник Антон Ионов. Расчитанная сумма с 5 июня 2025 г. по 9 июня 2025 г. составила: 0,0 руб.</x:t>
+    <x:t>Сотрудник Антон Ионов. Расчитанная сумма с 5 июня 2025 г. по 14 июня 2025 г. составила: 0,0 руб.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Сер.№</x:t>
